--- a/ExcelFiles/PatientDomain.xlsx
+++ b/ExcelFiles/PatientDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D36B1-2049-4B5E-A9BE-14F03AD14BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF331E-9AAD-4DAE-AD77-81EDB5B3647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -827,13 +827,13 @@
     <t>29/09/2023</t>
   </si>
   <si>
-    <t>28/09/2023</t>
-  </si>
-  <si>
-    <t>EonE</t>
-  </si>
-  <si>
-    <t>hosp0524Id042</t>
+    <t>28/09/1994</t>
+  </si>
+  <si>
+    <t>Diag</t>
+  </si>
+  <si>
+    <t>href05Di001</t>
   </si>
 </sst>
 </file>
@@ -2647,7 +2647,7 @@
   <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,7 +3298,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>addPatient!B2</f>
-        <v>hosp0524Id042</v>
+        <v>href05Di001</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>254</v>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="F2" s="6" t="str">
         <f>addPatient!F2</f>
-        <v>EonE</v>
+        <v>Diag</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>addPatient!G2</f>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F2" s="6" t="str">
         <f>addPatient!F2</f>
-        <v>EonE</v>
+        <v>Diag</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>addPatient!G2</f>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="I2" s="7" t="str">
         <f>addPatient!I2</f>
-        <v>28/09/2023</v>
+        <v>28/09/1994</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>116</v>
@@ -3738,7 +3738,7 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
         <f>addPatient!F2</f>
-        <v>EonE</v>
+        <v>Diag</v>
       </c>
       <c r="B2" s="6" t="str">
         <f>addPatient!G2</f>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="D2" s="7" t="str">
         <f>addPatient!I2</f>
-        <v>28/09/2023</v>
+        <v>28/09/1994</v>
       </c>
       <c r="E2" s="6">
         <v>8962845424</v>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE(A2,".",B2,"@Gmail.com")</f>
-        <v>EonE.Riomedtest@Gmail.com</v>
+        <v>Diag.Riomedtest@Gmail.com</v>
       </c>
     </row>
   </sheetData>
